--- a/Kurasik/doc/AV/Sprzęt AV sterowanie.xlsx
+++ b/Kurasik/doc/AV/Sprzęt AV sterowanie.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -489,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,135 +521,132 @@
     <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -658,16 +655,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
@@ -681,19 +678,19 @@
     </row>
     <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -713,97 +710,129 @@
     </row>
     <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
